--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Rossi.Spring.011520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Rossi.Spring.011520.xlsx_with_dialog_acts.xlsx
@@ -727,12 +727,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1151,12 +1151,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1449,12 +1449,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2335,12 +2335,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2377,12 +2377,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2587,12 +2587,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3095,12 +3095,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3137,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4027,12 +4027,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4111,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4153,12 +4153,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4363,12 +4363,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4573,12 +4573,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5375,12 +5375,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5925,12 +5925,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6261,12 +6261,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6303,12 +6303,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6387,12 +6387,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6639,12 +6639,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6765,12 +6765,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6933,12 +6933,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6975,12 +6975,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7953,12 +7953,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8667,12 +8667,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8751,12 +8751,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8961,12 +8961,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9045,12 +9045,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10187,12 +10187,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10775,12 +10775,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10901,12 +10901,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11069,12 +11069,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11405,12 +11405,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11573,12 +11573,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11867,12 +11867,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11913,12 +11913,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11955,12 +11955,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12165,12 +12165,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12543,12 +12543,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12753,12 +12753,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13819,12 +13819,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13945,12 +13945,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13987,12 +13987,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14449,12 +14449,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14533,12 +14533,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14789,12 +14789,12 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14831,12 +14831,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14873,12 +14873,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15213,12 +15213,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15591,12 +15591,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15843,12 +15843,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17355,12 +17355,12 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17859,12 +17859,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17901,12 +17901,12 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17943,12 +17943,12 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18279,12 +18279,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18363,12 +18363,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18783,12 +18783,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19287,12 +19287,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19791,12 +19791,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20085,12 +20085,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20505,12 +20505,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20799,12 +20799,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21135,12 +21135,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21303,12 +21303,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21429,12 +21429,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21597,12 +21597,12 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21807,12 +21807,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22193,12 +22193,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22571,12 +22571,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23037,12 +23037,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23499,12 +23499,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23709,12 +23709,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23835,12 +23835,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24091,12 +24091,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24435,12 +24435,12 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24477,12 +24477,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24775,12 +24775,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24863,12 +24863,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24989,12 +24989,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
